--- a/DragPrediction/NL2VP DragX/0.5L/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/7/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\New folder\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.5L\n\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -378,8 +378,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>1.55555556E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>-4.4381880000000002</v>
       </c>
@@ -400,8 +403,16 @@
         <f>SUM(E2:E81)</f>
         <v>4.3762470092652883</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>D2*$G$1</f>
+        <v>1.7104479515536608</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G137)</f>
+        <v>8.3347569127024794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>-4.4265290000000004</v>
       </c>
@@ -418,8 +429,12 @@
         <f t="shared" ref="E3:E66" si="0">D3*$E$1</f>
         <v>0.86007621600797113</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">D3*$G$1</f>
+        <v>1.6380533757912636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>-4.4023719999999997</v>
       </c>
@@ -436,8 +451,12 @@
         <f t="shared" si="0"/>
         <v>0.7769085674677686</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.47965689311648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>-4.3778499999999996</v>
       </c>
@@ -454,8 +473,12 @@
         <f t="shared" si="0"/>
         <v>0.54953746333892972</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.0466185207681162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>-4.3726900000000004</v>
       </c>
@@ -472,8 +495,12 @@
         <f t="shared" si="0"/>
         <v>0.51954789321865291</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.98950205171603767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>-4.3675309999999996</v>
       </c>
@@ -490,8 +517,12 @@
         <f t="shared" si="0"/>
         <v>0.43636019322247932</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.8310673801522559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>-4.3429760000000002</v>
       </c>
@@ -508,8 +539,12 @@
         <f t="shared" si="0"/>
         <v>0.26754972154772727</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.50956033478921992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>-4.3010299999999999</v>
       </c>
@@ -526,8 +561,12 @@
         <f t="shared" si="0"/>
         <v>0.33074139090081817</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.62991167735530318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>-4.3001290000000001</v>
       </c>
@@ -544,8 +583,12 @@
         <f t="shared" si="0"/>
         <v>0.18486517016344214</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.35208393211706518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>-4.2398579999999999</v>
       </c>
@@ -562,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>-0.11640183010257026</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.22169245841118482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>-4.2381570000000002</v>
       </c>
@@ -580,8 +627,12 @@
         <f t="shared" si="0"/>
         <v>0.12069662327879752</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.2298720828789996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-4.2281950000000004</v>
       </c>
@@ -598,8 +649,12 @@
         <f t="shared" si="0"/>
         <v>-0.12374237818380991</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-0.23567285845112879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>-4.2005689999999998</v>
       </c>
@@ -616,8 +671,12 @@
         <f t="shared" si="0"/>
         <v>-1.0213966643690084E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-1.9452953388913202E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>-4.1886219999999996</v>
       </c>
@@ -634,8 +693,12 @@
         <f t="shared" si="0"/>
         <v>-8.5864802144888439E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-0.16353333157834921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>-4.1519560000000002</v>
       </c>
@@ -652,8 +715,12 @@
         <f t="shared" si="0"/>
         <v>-1.9409351994446281E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-3.6965973438950396E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>-4.119313</v>
       </c>
@@ -670,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>-5.9788492140644633E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-0.11386984032534241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>-4.0896499999999998</v>
       </c>
@@ -688,8 +759,12 @@
         <f t="shared" si="0"/>
         <v>3.7985004470851236E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7.2344129095586393E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>-3.9655740000000002</v>
       </c>
@@ -706,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>-0.23933456234790498</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-0.45582331019124123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>-3.8680889999999999</v>
       </c>
@@ -724,8 +803,12 @@
         <f t="shared" si="0"/>
         <v>-8.8238085939545463E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.16805335603570801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-3.8528389999999999</v>
       </c>
@@ -742,8 +825,12 @@
         <f t="shared" si="0"/>
         <v>-8.4043639886764457E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.1600648471239948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-3.8330510000000002</v>
       </c>
@@ -760,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>-7.0657279712876039E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-0.13456992927337438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-3.775531</v>
       </c>
@@ -778,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>-6.2461731014950415E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-0.1189611425621112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-3.6935929999999999</v>
       </c>
@@ -796,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>-3.2486715556400828E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-6.1872393510111597E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-3.6872750000000001</v>
       </c>
@@ -814,8 +913,12 @@
         <f t="shared" si="0"/>
         <v>-3.33404746980124E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-6.3498415736979605E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>-3.2282999999999999</v>
       </c>
@@ -832,8 +935,12 @@
         <f t="shared" si="0"/>
         <v>0.14418297941750827</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.27460289189569081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>-3.224828</v>
       </c>
@@ -850,8 +957,12 @@
         <f t="shared" si="0"/>
         <v>0.14472407469515702</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.27563343189863521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>-3.2093639999999999</v>
       </c>
@@ -868,8 +979,12 @@
         <f t="shared" si="0"/>
         <v>0.12820996508815291</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.24418157625321721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>-3.1934650000000002</v>
       </c>
@@ -886,8 +1001,12 @@
         <f t="shared" si="0"/>
         <v>0.1123174424486529</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.21391356061118158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>-3.1689150000000001</v>
       </c>
@@ -904,8 +1023,12 @@
         <f t="shared" si="0"/>
         <v>-0.35149515422202893</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.66943814191268036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>-3.158528</v>
       </c>
@@ -922,8 +1045,12 @@
         <f t="shared" si="0"/>
         <v>3.664912828522314E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>6.9799893532761587E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>-2.9451580000000002</v>
       </c>
@@ -940,8 +1067,12 @@
         <f t="shared" si="0"/>
         <v>-5.7395263068805789E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-0.1093118292012084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>-2.9443280000000001</v>
       </c>
@@ -958,8 +1089,12 @@
         <f t="shared" si="0"/>
         <v>-5.7288079664851242E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-0.10910769364506959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>-2.9295360000000001</v>
       </c>
@@ -976,8 +1111,12 @@
         <f t="shared" si="0"/>
         <v>-6.5214514137607441E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-0.1242039403548684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>-2.904328</v>
       </c>
@@ -994,8 +1133,12 @@
         <f t="shared" si="0"/>
         <v>-9.1949426668809925E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-0.17512176938923679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>-2.8633199999999999</v>
       </c>
@@ -1012,8 +1155,12 @@
         <f t="shared" si="0"/>
         <v>-0.1170236294276529</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-0.22287670285901279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>-2.5989719999999998</v>
       </c>
@@ -1030,8 +1177,12 @@
         <f t="shared" si="0"/>
         <v>-0.18769784874121487</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-0.35747889435470159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>-2.5910669999999998</v>
       </c>
@@ -1048,8 +1199,12 @@
         <f t="shared" si="0"/>
         <v>-0.1862976037065</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-0.35481206545819316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>-2.5603669999999998</v>
       </c>
@@ -1066,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>-0.16422093434714877</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-0.31276606756028402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>-2.5169920000000001</v>
       </c>
@@ -1084,8 +1243,12 @@
         <f t="shared" si="0"/>
         <v>-0.14205649596707851</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-0.27055290966189716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>-2.429262</v>
       </c>
@@ -1102,8 +1265,12 @@
         <f t="shared" si="0"/>
         <v>-0.10693760822501652</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-0.20366742724857359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>-1.1053230000000001</v>
       </c>
@@ -1120,8 +1287,12 @@
         <f t="shared" si="0"/>
         <v>1.8711822689826449E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3.5637497879599203E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>-0.84992599999999996</v>
       </c>
@@ -1138,8 +1309,12 @@
         <f t="shared" si="0"/>
         <v>1.4224625379867769E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>2.7091431188515199E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>-0.70286800000000005</v>
       </c>
@@ -1156,8 +1331,12 @@
         <f t="shared" si="0"/>
         <v>2.0040625734570248E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>3.8168262331274398E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>-0.657335</v>
       </c>
@@ -1174,8 +1353,12 @@
         <f t="shared" si="0"/>
         <v>1.8357046684524796E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>3.4961811211002003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>-0.61887999999999999</v>
       </c>
@@ -1192,8 +1375,12 @@
         <f t="shared" si="0"/>
         <v>2.0377236999309916E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>3.8809353444217196E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>-0.61664099999999999</v>
       </c>
@@ -1210,8 +1397,12 @@
         <f t="shared" si="0"/>
         <v>3.6646196117119834E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>6.9794309088301199E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>-0.58575600000000005</v>
       </c>
@@ -1228,8 +1419,12 @@
         <f t="shared" si="0"/>
         <v>1.8804606616438017E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>3.58142089912152E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>-0.579179</v>
       </c>
@@ -1246,8 +1441,12 @@
         <f t="shared" si="0"/>
         <v>4.1002646499508265E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>7.8091362445340387E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>-0.52642599999999995</v>
       </c>
@@ -1264,8 +1463,12 @@
         <f t="shared" si="0"/>
         <v>2.0378633658768599E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>3.8812013444224802E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>-0.52615199999999995</v>
       </c>
@@ -1282,8 +1485,12 @@
         <f t="shared" si="0"/>
         <v>1.9357087527334709E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>3.6866433438665996E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>-0.48777799999999999</v>
       </c>
@@ -1300,8 +1507,12 @@
         <f t="shared" si="0"/>
         <v>2.0270078098152892E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>3.8605264554745201E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>-0.46982699999999999</v>
       </c>
@@ -1318,8 +1529,12 @@
         <f t="shared" si="0"/>
         <v>1.9377245162095044E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>3.6904824549886799E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>-0.45800999999999997</v>
       </c>
@@ -1336,8 +1551,12 @@
         <f t="shared" si="0"/>
         <v>2.2847845905719009E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>4.3514737902105596E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>-0.40543699999999999</v>
       </c>
@@ -1354,8 +1573,12 @@
         <f t="shared" si="0"/>
         <v>2.5726034346086779E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>4.89963756955452E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>-0.377998</v>
       </c>
@@ -1372,8 +1595,12 @@
         <f t="shared" si="0"/>
         <v>2.8686135638566118E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5.4634020156097196E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>-0.37101800000000001</v>
       </c>
@@ -1390,8 +1617,12 @@
         <f t="shared" si="0"/>
         <v>2.5409441866921487E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>4.8393411249378002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>-0.35098600000000002</v>
       </c>
@@ -1408,8 +1639,12 @@
         <f t="shared" si="0"/>
         <v>2.3539755902107436E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>4.4832511239203995E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>-0.34063199999999999</v>
       </c>
@@ -1426,8 +1661,12 @@
         <f t="shared" si="0"/>
         <v>2.0273573830599172E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>3.8611922332542001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>-0.29235800000000001</v>
       </c>
@@ -1444,8 +1683,12 @@
         <f t="shared" si="0"/>
         <v>2.4542230689471076E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>4.6741769022436798E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>-0.25508399999999998</v>
       </c>
@@ -1462,8 +1705,12 @@
         <f t="shared" si="0"/>
         <v>2.4878890959805788E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>4.7382953468713199E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>-0.230823</v>
       </c>
@@ -1480,8 +1727,12 @@
         <f t="shared" si="0"/>
         <v>2.1813337794396696E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>4.1544471229809601E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>-0.22200500000000001</v>
       </c>
@@ -1498,8 +1749,12 @@
         <f t="shared" si="0"/>
         <v>9.8369290300809917E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.1873486849797264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>-0.216972</v>
       </c>
@@ -1516,8 +1771,12 @@
         <f t="shared" si="0"/>
         <v>1.9438567496690085E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>3.7021615661331601E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>-0.173517</v>
       </c>
@@ -1534,8 +1793,12 @@
         <f t="shared" si="0"/>
         <v>2.9380250886731404E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>5.5955993493207595E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>-0.16463800000000001</v>
       </c>
@@ -1552,8 +1815,12 @@
         <f t="shared" si="0"/>
         <v>6.93399766477686E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.13206106704398399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>-0.15423300000000001</v>
       </c>
@@ -1567,11 +1834,15 @@
         <v>9.0766390000000001</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E81" si="1">D67*$E$1</f>
+        <f t="shared" ref="E67:E81" si="2">D67*$E$1</f>
         <v>7.4134349195045454E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67">
+        <f t="shared" ref="G67:G81" si="3">D67*$G$1</f>
+        <v>0.14119216262562839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>-0.14815900000000001</v>
       </c>
@@ -1585,11 +1856,15 @@
         <v>7.4574600000000002</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0909544132809919E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>0.116004933664776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>-0.145958</v>
       </c>
@@ -1603,11 +1878,15 @@
         <v>2.9173619999999998</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3827843460157025E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>4.5381186796327196E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>-0.134857</v>
       </c>
@@ -1621,11 +1900,15 @@
         <v>3.9489960000000002</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2253816465966943E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>6.1428826842177604E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>-0.128273</v>
       </c>
@@ -1639,11 +1922,15 @@
         <v>2.3799410000000001</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9438404144706614E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>3.7021304550219604E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>-0.123794</v>
       </c>
@@ -1657,11 +1944,15 @@
         <v>2.0924909999999999</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7090627762268596E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>3.2549860092999601E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>-0.117801</v>
       </c>
@@ -1675,11 +1966,15 @@
         <v>4.0421370000000003</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3014554820590916E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>6.2877686846317199E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>-0.10979800000000001</v>
       </c>
@@ -1693,11 +1988,15 @@
         <v>3.9132449999999999</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1961816627913225E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>6.0872700173921997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>-9.9322999999999995E-2</v>
       </c>
@@ -1711,11 +2010,15 @@
         <v>7.8983059999999998</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4510197558074384E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0.12286253812881359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>-9.2369000000000007E-2</v>
       </c>
@@ -1729,11 +2032,15 @@
         <v>7.9071360000000004</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4582317458776864E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>0.12299989368476161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>-5.8666000000000003E-2</v>
       </c>
@@ -1747,11 +2054,15 @@
         <v>8.0043729999999993</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5376510299615706E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0.12451246924463878</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>-5.7585999999999998E-2</v>
       </c>
@@ -1765,11 +2076,15 @@
         <v>6.7624709999999997</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5233152550780991E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>0.10519399363388759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>-5.5979000000000001E-2</v>
       </c>
@@ -1783,11 +2098,15 @@
         <v>6.4006590000000001</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2278017158599178E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>9.9565806951140395E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>-4.9494000000000003E-2</v>
       </c>
@@ -1801,11 +2120,15 @@
         <v>7.7482829999999998</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3284869827260337E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>0.12052884701103479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>-4.6281999999999997E-2</v>
       </c>
@@ -1819,8 +2142,12 @@
         <v>2.6541619999999999</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1678131357677686E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>4.12869645624072E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DragPrediction/NL2VP DragX/0.5L/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/7/test.xlsx
@@ -379,7 +379,7 @@
         <v>8.1675991735537194E-3</v>
       </c>
       <c r="G1">
-        <v>1.55555556E-2</v>
+        <v>1.54418671875E-2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -405,11 +405,11 @@
       </c>
       <c r="G2">
         <f>D2*$G$1</f>
-        <v>1.7104479515536608</v>
+        <v>1.6979470729430626</v>
       </c>
       <c r="H2">
         <f>SUM(G2:G137)</f>
-        <v>8.3347569127024794</v>
+        <v>8.2738420018921897</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -431,7 +431,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="1">D3*$G$1</f>
-        <v>1.6380533757912636</v>
+        <v>1.6260815958900703</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -453,7 +453,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.47965689311648</v>
+        <v>1.4688427603687499</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -475,7 +475,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.0466185207681162</v>
+        <v>1.038969266625164</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -497,7 +497,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.98950205171603767</v>
+        <v>0.98227023561651561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -519,7 +519,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.8310673801522559</v>
+        <v>0.82499349031124991</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -541,7 +541,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.50956033478921992</v>
+        <v>0.50583619230117183</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -563,7 +563,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.62991167735530318</v>
+        <v>0.62530794217185937</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -585,7 +585,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.35208393211706518</v>
+        <v>0.34951071234025777</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -607,7 +607,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-0.22169245841118482</v>
+        <v>-0.22007221003767188</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -629,7 +629,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.2298720828789996</v>
+        <v>0.22819205338647655</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -651,7 +651,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-0.23567285845112879</v>
+        <v>-0.23395043375376562</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -673,7 +673,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-1.9452953388913202E-2</v>
+        <v>-1.9310780685726562E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -695,7 +695,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-0.16353333157834921</v>
+        <v>-0.1623381415551797</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -717,7 +717,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-3.6965973438950396E-2</v>
+        <v>-3.6695806114499997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -739,7 +739,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>-0.11386984032534241</v>
+        <v>-0.11303761795340625</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -761,7 +761,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>7.2344129095586393E-2</v>
+        <v>7.1815399077703124E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -783,7 +783,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-0.45582331019124123</v>
+        <v>-0.45249190693900782</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -805,7 +805,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-0.16805335603570801</v>
+        <v>-0.16682513122945314</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -827,7 +827,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>-0.1600648471239948</v>
+        <v>-0.15889500666091405</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -849,7 +849,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>-0.13456992927337438</v>
+        <v>-0.13358641945715624</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -871,7 +871,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>-0.1189611425621112</v>
+        <v>-0.11809171020014063</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -893,7 +893,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>-6.1872393510111597E-2</v>
+        <v>-6.1420196598820309E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -915,7 +915,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>-6.3498415736979605E-2</v>
+        <v>-6.3034334975929696E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -937,7 +937,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0.27460289189569081</v>
+        <v>0.27259594546122656</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -959,7 +959,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0.27563343189863521</v>
+        <v>0.27361895372053124</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,7 +981,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>0.24418157625321721</v>
+        <v>0.24239696524478907</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>0.21391356061118158</v>
+        <v>0.21235016462948436</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>-0.66943814191268036</v>
+        <v>-0.66454552595102334</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>6.9799893532761587E-2</v>
+        <v>6.9289758164249995E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>-0.1093118292012084</v>
+        <v>-0.10851291923946094</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>-0.10910769364506959</v>
+        <v>-0.10831027561635936</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>-0.1242039403548684</v>
+        <v>-0.12329619079141406</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>-0.17512176938923679</v>
+        <v>-0.17384188479571874</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>-0.22287670285901279</v>
+        <v>-0.22124779938665626</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>-0.35747889435470159</v>
+        <v>-0.35486624527635935</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>-0.35481206545819316</v>
+        <v>-0.35221890700760156</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>-0.31276606756028402</v>
+        <v>-0.31048020400007814</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>-0.27055290966189716</v>
+        <v>-0.26857556268775779</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>-0.20366742724857359</v>
+        <v>-0.20217891555042186</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>3.5637497879599203E-2</v>
+        <v>3.5377039772953124E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>2.7091431188515199E-2</v>
+        <v>2.6893432358812499E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>3.8168262331274398E-2</v>
+        <v>3.7889308029421871E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>3.4961811211002003E-2</v>
+        <v>3.4706291387929689E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>3.8809353444217196E-2</v>
+        <v>3.8525713701820306E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>6.9794309088301199E-2</v>
+        <v>6.9284214533929689E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>3.58142089912152E-2</v>
+        <v>3.5552459384203122E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>7.8091362445340387E-2</v>
+        <v>7.752062853813281E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>3.8812013444224802E-2</v>
+        <v>3.8528354261109378E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>3.6866433438665996E-2</v>
+        <v>3.659699360636718E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>3.8605264554745201E-2</v>
+        <v>3.8323116404320311E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>3.6904824549886799E-2</v>
+        <v>3.6635104134585941E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>4.3514737902105596E-2</v>
+        <v>4.3196708665499996E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>4.89963756955452E-2</v>
+        <v>4.8638283685570313E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>5.4634020156097196E-2</v>
+        <v>5.4234725191664057E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>4.8393411249378002E-2</v>
+        <v>4.8039726029648434E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>4.4832511239203995E-2</v>
+        <v>4.4504851002421873E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>3.8611922332542001E-2</v>
+        <v>3.8329725523476563E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>4.6741769022436798E-2</v>
+        <v>4.6400154897281248E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>4.7382953468713199E-2</v>
+        <v>4.7036653220882817E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>4.1544471229809601E-2</v>
+        <v>4.1240841767531247E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>0.1873486849797264</v>
+        <v>0.18597943947496876</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>3.7021615661331601E-2</v>
+        <v>3.6751041673429692E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>5.5955993493207595E-2</v>
+        <v>5.5547036832726562E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>0.13206106704398399</v>
+        <v>0.13109589334968749</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G81" si="3">D67*$G$1</f>
-        <v>0.14119216262562839</v>
+        <v>0.14016025394688281</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
-        <v>0.116004933664776</v>
+        <v>0.11515710687609375</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
-        <v>4.5381186796327196E-2</v>
+        <v>4.5049516541859368E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>6.1428826842177604E-2</v>
+        <v>6.0979871755968751E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>3.7021304550219604E-2</v>
+        <v>3.6750732836085938E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
-        <v>3.2549860092999601E-2</v>
+        <v>3.2311968113039061E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
-        <v>6.2877686846317199E-2</v>
+        <v>6.2418142707679689E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>6.0872700173921997E-2</v>
+        <v>6.0427809562148431E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="3"/>
-        <v>0.12286253812881359</v>
+        <v>0.12196459225823437</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
-        <v>0.12299989368476161</v>
+        <v>0.1221009439455</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
-        <v>0.12451246924463878</v>
+        <v>0.12360246478521092</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
-        <v>0.10519399363388759</v>
+        <v>0.1044251790413203</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
-        <v>9.9565806951140395E-2</v>
+        <v>9.8838126190476563E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
-        <v>0.12052884701103479</v>
+        <v>0.11964795701716406</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="3"/>
-        <v>4.12869645624072E-2</v>
+        <v>4.0985217098109372E-2</v>
       </c>
     </row>
   </sheetData>
